--- a/Month-1-Jan/Week-2-Data-Collection/excel/Week 2 Sales Data Analytics & KPI Dashboard.xlsx
+++ b/Month-1-Jan/Week-2-Data-Collection/excel/Week 2 Sales Data Analytics & KPI Dashboard.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capaciti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888E2C2-1F61-41C2-899C-E8CA51988987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B6C6A-C026-44C9-9F31-ADBCD77E69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50BB9C4D-B22E-47CF-8460-2307CFBA8B9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{50BB9C4D-B22E-47CF-8460-2307CFBA8B9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Multi Attribute Brand" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,34 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Data Drifters</t>
-  </si>
-  <si>
-    <t>Data Drifters Week 2 Project</t>
-  </si>
-  <si>
-    <t>Thato Msina</t>
-  </si>
-  <si>
-    <t>Fikile Noyila</t>
-  </si>
-  <si>
-    <t>Lesedi Mphachake</t>
-  </si>
-  <si>
-    <t>Jereshan Sinan</t>
-  </si>
-  <si>
-    <t>Kaylene Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Question 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Question 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>d</t>
   </si>
@@ -73,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,98 +53,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF253A3B"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF253A3B"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF253A3B"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998168889431442"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,164 +63,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749961851863155"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749961851863155"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749961851863155"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749961851863155"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF253A3B"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF253A3B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF253A3B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF253A3B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF253A3B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF253A3B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749961851863155"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF253A3B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF253A3B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -348,108 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +91,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5B7E"/>
+      <color rgb="FF5E93FC"/>
       <color rgb="FF2CC295"/>
-      <color rgb="FFFF5B7E"/>
       <color rgb="FFFF97AD"/>
       <color rgb="FFE2E2E2"/>
       <color rgb="FF3E403F"/>
@@ -467,7 +101,6 @@
       <color rgb="FF253A3B"/>
       <color rgb="FF738564"/>
       <color rgb="FFE89D56"/>
-      <color rgb="FF1A3A46"/>
     </mruColors>
   </colors>
   <extLst>
@@ -482,1527 +115,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Revenue of Each Product</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="2CC295"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>External Hard Drive</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Headphones</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Laptop</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Printer</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Smartphone</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Smartwatch</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Tablet</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>(blank)</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>2839222</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>4103350</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3812457</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5669794</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5232187</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6370590</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7267738</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82E0-4723-B6E6-46DF1D55C492}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1200802736"/>
-        <c:axId val="1200801776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1200802736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1200801776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1200801776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1200802736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Revenue</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> region</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="25000"/>
-                  <a:lumOff val="75000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="wedgeRectCallout">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="25000"/>
-                  <a:lumOff val="75000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="wedgeRectCallout">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:pattFill prst="ltUpDiag">
-            <a:fgClr>
-              <a:schemeClr val="accent1"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent1"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent1"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent2"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent3"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent3"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent4"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent4"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent5"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent5"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent6"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent6"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-6C1C-4399-B676-7DBABEF008DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-6C1C-4399-B676-7DBABEF008DF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>Eastern Cape</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Free State</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Gauteng</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>KwaZulu-Natal</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Limpopo</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>North West</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>Western Cape</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>(blank)</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>2981638</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3359398</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>6231531</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3560630</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>3614655</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6201288</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9346198</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-6C1C-4399-B676-7DBABEF008DF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-        <a:prstClr val="black">
-          <a:alpha val="17000"/>
-        </a:prstClr>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2624,7 +736,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3554,7 +1666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3971,7 +2083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4213,9 +2325,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="39000">
+                    <a:srgbClr val="5E93FC"/>
+                  </a:gs>
+                  <a:gs pos="72000">
+                    <a:srgbClr val="FF5B7E"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -4230,9 +2350,17 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="2CC295"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="39000">
+                    <a:srgbClr val="5E93FC"/>
+                  </a:gs>
+                  <a:gs pos="72000">
+                    <a:srgbClr val="FF5B7E"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:noFill/>
                 <a:round/>
@@ -4538,7 +2666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5026,12 +3154,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5039,6 +3161,43 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5111,83 +3270,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6228,7 +4310,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6432,23 +4514,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6553,8 +4634,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6686,20 +4767,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6733,7 +4813,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6744,7 +4824,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6757,11 +4837,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6774,7 +4854,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6834,83 +4914,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6919,22 +4951,22 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -6943,10 +4975,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6968,13 +5000,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6989,15 +5023,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7008,10 +5042,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7027,14 +5061,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7046,7 +5080,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7054,16 +5088,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -7072,16 +5107,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7090,10 +5126,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7103,24 +5158,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -7134,20 +5171,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7160,6 +5197,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7167,10 +5215,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7187,11 +5235,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7200,7 +5248,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7236,8 +5284,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7260,7 +5308,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -7769,1625 +5817,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>217110</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="241935" y="1777602"/>
-          <a:ext cx="7014150" cy="3956448"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="csX0" fmla="*/ 0 w 6991349"/>
-            <a:gd name="csY0" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX1" fmla="*/ 465147 w 6991349"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX2" fmla="*/ 6526202 w 6991349"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX3" fmla="*/ 6991349 w 6991349"/>
-            <a:gd name="csY3" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX4" fmla="*/ 6991349 w 6991349"/>
-            <a:gd name="csY4" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX5" fmla="*/ 6526202 w 6991349"/>
-            <a:gd name="csY5" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX6" fmla="*/ 465147 w 6991349"/>
-            <a:gd name="csY6" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX7" fmla="*/ 0 w 6991349"/>
-            <a:gd name="csY7" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX8" fmla="*/ 0 w 6991349"/>
-            <a:gd name="csY8" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX0" fmla="*/ 3721 w 6995070"/>
-            <a:gd name="csY0" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX1" fmla="*/ 211693 w 6995070"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX2" fmla="*/ 6529923 w 6995070"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX3" fmla="*/ 6995070 w 6995070"/>
-            <a:gd name="csY3" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX4" fmla="*/ 6995070 w 6995070"/>
-            <a:gd name="csY4" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX5" fmla="*/ 6529923 w 6995070"/>
-            <a:gd name="csY5" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX6" fmla="*/ 468868 w 6995070"/>
-            <a:gd name="csY6" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX7" fmla="*/ 3721 w 6995070"/>
-            <a:gd name="csY7" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX8" fmla="*/ 3721 w 6995070"/>
-            <a:gd name="csY8" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX0" fmla="*/ 3721 w 6998791"/>
-            <a:gd name="csY0" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX1" fmla="*/ 211693 w 6998791"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX2" fmla="*/ 6787098 w 6998791"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX3" fmla="*/ 6995070 w 6998791"/>
-            <a:gd name="csY3" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX4" fmla="*/ 6995070 w 6998791"/>
-            <a:gd name="csY4" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX5" fmla="*/ 6529923 w 6998791"/>
-            <a:gd name="csY5" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX6" fmla="*/ 468868 w 6998791"/>
-            <a:gd name="csY6" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX7" fmla="*/ 3721 w 6998791"/>
-            <a:gd name="csY7" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX8" fmla="*/ 3721 w 6998791"/>
-            <a:gd name="csY8" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX0" fmla="*/ 3721 w 7003209"/>
-            <a:gd name="csY0" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX1" fmla="*/ 211693 w 7003209"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX2" fmla="*/ 6787098 w 7003209"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2790825"/>
-            <a:gd name="csX3" fmla="*/ 6995070 w 7003209"/>
-            <a:gd name="csY3" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX4" fmla="*/ 6995070 w 7003209"/>
-            <a:gd name="csY4" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX5" fmla="*/ 6806148 w 7003209"/>
-            <a:gd name="csY5" fmla="*/ 2781300 h 2790825"/>
-            <a:gd name="csX6" fmla="*/ 468868 w 7003209"/>
-            <a:gd name="csY6" fmla="*/ 2790825 h 2790825"/>
-            <a:gd name="csX7" fmla="*/ 3721 w 7003209"/>
-            <a:gd name="csY7" fmla="*/ 2325678 h 2790825"/>
-            <a:gd name="csX8" fmla="*/ 3721 w 7003209"/>
-            <a:gd name="csY8" fmla="*/ 465147 h 2790825"/>
-            <a:gd name="csX0" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY0" fmla="*/ 465147 h 2800350"/>
-            <a:gd name="csX1" fmla="*/ 213688 w 7005204"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2800350"/>
-            <a:gd name="csX2" fmla="*/ 6789093 w 7005204"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2800350"/>
-            <a:gd name="csX3" fmla="*/ 6997065 w 7005204"/>
-            <a:gd name="csY3" fmla="*/ 465147 h 2800350"/>
-            <a:gd name="csX4" fmla="*/ 6997065 w 7005204"/>
-            <a:gd name="csY4" fmla="*/ 2325678 h 2800350"/>
-            <a:gd name="csX5" fmla="*/ 6808143 w 7005204"/>
-            <a:gd name="csY5" fmla="*/ 2781300 h 2800350"/>
-            <a:gd name="csX6" fmla="*/ 204163 w 7005204"/>
-            <a:gd name="csY6" fmla="*/ 2800350 h 2800350"/>
-            <a:gd name="csX7" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY7" fmla="*/ 2325678 h 2800350"/>
-            <a:gd name="csX8" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY8" fmla="*/ 465147 h 2800350"/>
-            <a:gd name="csX0" fmla="*/ 5716 w 7014842"/>
-            <a:gd name="csY0" fmla="*/ 471895 h 2807098"/>
-            <a:gd name="csX1" fmla="*/ 213688 w 7014842"/>
-            <a:gd name="csY1" fmla="*/ 6748 h 2807098"/>
-            <a:gd name="csX2" fmla="*/ 6836718 w 7014842"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2807098"/>
-            <a:gd name="csX3" fmla="*/ 6997065 w 7014842"/>
-            <a:gd name="csY3" fmla="*/ 471895 h 2807098"/>
-            <a:gd name="csX4" fmla="*/ 6997065 w 7014842"/>
-            <a:gd name="csY4" fmla="*/ 2332426 h 2807098"/>
-            <a:gd name="csX5" fmla="*/ 6808143 w 7014842"/>
-            <a:gd name="csY5" fmla="*/ 2788048 h 2807098"/>
-            <a:gd name="csX6" fmla="*/ 204163 w 7014842"/>
-            <a:gd name="csY6" fmla="*/ 2807098 h 2807098"/>
-            <a:gd name="csX7" fmla="*/ 5716 w 7014842"/>
-            <a:gd name="csY7" fmla="*/ 2332426 h 2807098"/>
-            <a:gd name="csX8" fmla="*/ 5716 w 7014842"/>
-            <a:gd name="csY8" fmla="*/ 471895 h 2807098"/>
-            <a:gd name="csX0" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY0" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX1" fmla="*/ 213688 w 7005204"/>
-            <a:gd name="csY1" fmla="*/ 2521 h 2802871"/>
-            <a:gd name="csX2" fmla="*/ 6795040 w 7005204"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2802871"/>
-            <a:gd name="csX3" fmla="*/ 6997065 w 7005204"/>
-            <a:gd name="csY3" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX4" fmla="*/ 6997065 w 7005204"/>
-            <a:gd name="csY4" fmla="*/ 2328199 h 2802871"/>
-            <a:gd name="csX5" fmla="*/ 6808143 w 7005204"/>
-            <a:gd name="csY5" fmla="*/ 2783821 h 2802871"/>
-            <a:gd name="csX6" fmla="*/ 204163 w 7005204"/>
-            <a:gd name="csY6" fmla="*/ 2802871 h 2802871"/>
-            <a:gd name="csX7" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY7" fmla="*/ 2328199 h 2802871"/>
-            <a:gd name="csX8" fmla="*/ 5716 w 7005204"/>
-            <a:gd name="csY8" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX0" fmla="*/ 5716 w 7011672"/>
-            <a:gd name="csY0" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX1" fmla="*/ 213688 w 7011672"/>
-            <a:gd name="csY1" fmla="*/ 2521 h 2802871"/>
-            <a:gd name="csX2" fmla="*/ 6795040 w 7011672"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2802871"/>
-            <a:gd name="csX3" fmla="*/ 7008974 w 7011672"/>
-            <a:gd name="csY3" fmla="*/ 345069 h 2802871"/>
-            <a:gd name="csX4" fmla="*/ 6997065 w 7011672"/>
-            <a:gd name="csY4" fmla="*/ 2328199 h 2802871"/>
-            <a:gd name="csX5" fmla="*/ 6808143 w 7011672"/>
-            <a:gd name="csY5" fmla="*/ 2783821 h 2802871"/>
-            <a:gd name="csX6" fmla="*/ 204163 w 7011672"/>
-            <a:gd name="csY6" fmla="*/ 2802871 h 2802871"/>
-            <a:gd name="csX7" fmla="*/ 5716 w 7011672"/>
-            <a:gd name="csY7" fmla="*/ 2328199 h 2802871"/>
-            <a:gd name="csX8" fmla="*/ 5716 w 7011672"/>
-            <a:gd name="csY8" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX0" fmla="*/ 5716 w 7014149"/>
-            <a:gd name="csY0" fmla="*/ 467668 h 2802871"/>
-            <a:gd name="csX1" fmla="*/ 213688 w 7014149"/>
-            <a:gd name="csY1" fmla="*/ 2521 h 2802871"/>
-            <a:gd name="csX2" fmla="*/ 6795040 w 7014149"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2802871"/>
-            <a:gd name="csX3" fmla="*/ 7008974 w 7014149"/>
-            <a:gd name="csY3" fmla="*/ 345069 h 2802871"/>
-            <a:gd name="csX4" fmla="*/ 7008974 w 7014149"/>
-            <a:gd name="csY4" fmla="*/ 2505757 h 2802871"/>
-            <a:gd name="csX5" fmla="*/ 6808143 w 7014149"/>
-            <a:gd name="csY5" fmla="*/ 2783821 h 2802871"/>
-            <a:gd name="csX6" fmla="*/ 204163 w 7014149"/>
-            <a:gd name="csY6" fmla="*/ 2802871 h 2802871"/>
-            <a:gd name="csX7" fmla="*/ 5716 w 7014149"/>
-            <a:gd name="csY7" fmla="*/ 2328199 h 2802871"/>
-            <a:gd name="csX8" fmla="*/ 5716 w 7014149"/>
-            <a:gd name="csY8" fmla="*/ 467668 h 2802871"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="csX0" y="csY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX1" y="csY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX2" y="csY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX3" y="csY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX4" y="csY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX5" y="csY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX6" y="csY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX7" y="csY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX8" y="csY8"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="7014149" h="2802871">
-              <a:moveTo>
-                <a:pt x="5716" y="467668"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="5716" y="210774"/>
-                <a:pt x="-43206" y="2521"/>
-                <a:pt x="213688" y="2521"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="6795040" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="7051934" y="0"/>
-                <a:pt x="7008974" y="88175"/>
-                <a:pt x="7008974" y="345069"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="7005004" y="1006112"/>
-                <a:pt x="7012944" y="1844714"/>
-                <a:pt x="7008974" y="2505757"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="7008974" y="2762651"/>
-                <a:pt x="7065037" y="2783821"/>
-                <a:pt x="6808143" y="2783821"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="204163" y="2802871"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="-52731" y="2802871"/>
-                <a:pt x="5716" y="2585093"/>
-                <a:pt x="5716" y="2328199"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="5716" y="467668"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="17000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-ZA" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80778</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="347383" y="3074893"/>
-          <a:ext cx="6770689" cy="2450727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="1790700"/>
-          <a:ext cx="6953249" cy="1000126"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-ZA" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This dataset contains </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-ZA" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>structured data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-ZA" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> because it is organized into a highly defined format of rows and columns with a consistent schema. Each entry follows a specific data type (such as dates, integers, or text), allowing it to be easily searched, analyzed, and processed by database or spreadsheet software. This organization makes it ideal for quantitative analysis of sales performance and trends.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-ZA" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>316165</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="37" name="Chart 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9407,7 +5837,7 @@
         <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9497,7 +5927,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9569,7 +5999,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9669,7 +6099,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9744,7 +6174,7 @@
         <xdr:cNvPr id="57" name="Group 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9753,7 +6183,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="133350" y="1276350"/>
-          <a:ext cx="2077287" cy="1457324"/>
+          <a:ext cx="2058732" cy="1457324"/>
           <a:chOff x="133350" y="1276350"/>
           <a:chExt cx="1974273" cy="1457324"/>
         </a:xfrm>
@@ -9763,7 +6193,7 @@
           <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9823,7 +6253,7 @@
           <xdr:cNvPr id="13" name="TextBox 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9883,7 +6313,7 @@
           <xdr:cNvPr id="14" name="TextBox 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10118,7 +6548,7 @@
         <xdr:cNvPr id="56" name="Group 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10126,8 +6556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2358117" y="1231447"/>
-          <a:ext cx="3740604" cy="2085975"/>
+          <a:off x="2339562" y="1231447"/>
+          <a:ext cx="3703493" cy="2085975"/>
           <a:chOff x="2349953" y="1231447"/>
           <a:chExt cx="3724275" cy="2085975"/>
         </a:xfrm>
@@ -10137,7 +6567,7 @@
           <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10201,7 +6631,7 @@
           <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10375,7 +6805,7 @@
           <xdr:cNvPr id="15" name="TextBox 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10448,7 +6878,7 @@
         <xdr:cNvPr id="55" name="Group 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10456,8 +6886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2343150" y="254455"/>
-          <a:ext cx="3761656" cy="888546"/>
+          <a:off x="2324595" y="254455"/>
+          <a:ext cx="3724545" cy="888546"/>
           <a:chOff x="2334986" y="254455"/>
           <a:chExt cx="3745327" cy="888546"/>
         </a:xfrm>
@@ -10467,7 +6897,7 @@
           <xdr:cNvPr id="27" name="Rectangle: Rounded Corners 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10531,7 +6961,7 @@
           <xdr:cNvPr id="28" name="TextBox 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10623,7 +7053,7 @@
         <xdr:cNvPr id="54" name="Group 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10631,8 +7061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2380451" y="3415634"/>
-          <a:ext cx="5702192" cy="888546"/>
+          <a:off x="2361896" y="3415634"/>
+          <a:ext cx="5640341" cy="888546"/>
           <a:chOff x="2372287" y="3415634"/>
           <a:chExt cx="5674977" cy="888546"/>
         </a:xfrm>
@@ -10642,7 +7072,7 @@
           <xdr:cNvPr id="32" name="Rectangle: Rounded Corners 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10706,7 +7136,7 @@
           <xdr:cNvPr id="33" name="TextBox 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10798,7 +7228,7 @@
         <xdr:cNvPr id="42" name="Group 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10806,8 +7236,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2354654" y="4376862"/>
-          <a:ext cx="5721481" cy="2095499"/>
+          <a:off x="2336099" y="4376862"/>
+          <a:ext cx="5659630" cy="2095499"/>
           <a:chOff x="6115792" y="1231448"/>
           <a:chExt cx="5659464" cy="2095499"/>
         </a:xfrm>
@@ -10817,7 +7247,7 @@
           <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10881,7 +7311,7 @@
           <xdr:cNvPr id="17" name="Chart 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10904,7 +7334,7 @@
           <xdr:cNvPr id="35" name="TextBox 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10985,7 +7415,7 @@
         <xdr:cNvPr id="44" name="Group 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10993,8 +7423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8120171" y="3410099"/>
-          <a:ext cx="4364693" cy="3059206"/>
+          <a:off x="8039765" y="3410099"/>
+          <a:ext cx="4321397" cy="3059206"/>
           <a:chOff x="17668674" y="7393281"/>
           <a:chExt cx="4412317" cy="3059206"/>
         </a:xfrm>
@@ -11004,7 +7434,7 @@
           <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11068,7 +7498,7 @@
           <xdr:cNvPr id="20" name="Chart 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11091,7 +7521,7 @@
           <xdr:cNvPr id="36" name="TextBox 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11172,7 +7602,7 @@
         <xdr:cNvPr id="43" name="Group 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11180,8 +7610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6185497" y="241788"/>
-          <a:ext cx="5123709" cy="3079538"/>
+          <a:off x="6123647" y="241788"/>
+          <a:ext cx="5074228" cy="3079538"/>
           <a:chOff x="2330037" y="3400501"/>
           <a:chExt cx="5074227" cy="3079538"/>
         </a:xfrm>
@@ -11191,7 +7621,7 @@
           <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11255,7 +7685,7 @@
           <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11301,7 +7731,7 @@
           <xdr:cNvPr id="38" name="TextBox 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11382,7 +7812,7 @@
         <xdr:cNvPr id="46" name="Group 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11390,8 +7820,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12551229" y="3422343"/>
-          <a:ext cx="4660032" cy="3040716"/>
+          <a:off x="12427527" y="3422343"/>
+          <a:ext cx="4610552" cy="3040716"/>
           <a:chOff x="7481019" y="6504980"/>
           <a:chExt cx="4270990" cy="3040716"/>
         </a:xfrm>
@@ -11401,7 +7831,7 @@
           <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11465,7 +7895,7 @@
           <xdr:cNvPr id="37" name="TextBox 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11522,7 +7952,7 @@
           <xdr:cNvPr id="5" name="Chart 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11561,7 +7991,7 @@
         <xdr:cNvPr id="45" name="Group 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11569,8 +7999,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2394670" y="6557183"/>
-          <a:ext cx="5074416" cy="3040716"/>
+          <a:off x="2376115" y="6557183"/>
+          <a:ext cx="5018750" cy="3040716"/>
           <a:chOff x="2394669" y="6522546"/>
           <a:chExt cx="5074416" cy="3040716"/>
         </a:xfrm>
@@ -11580,7 +8010,7 @@
           <xdr:cNvPr id="30" name="Rectangle: Rounded Corners 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11644,7 +8074,7 @@
           <xdr:cNvPr id="19" name="Chart 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11667,7 +8097,7 @@
           <xdr:cNvPr id="24" name="TextBox 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11740,7 +8170,7 @@
         <xdr:cNvPr id="47" name="Group 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11748,8 +8178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563158" y="6540113"/>
-          <a:ext cx="4304179" cy="3074534"/>
+          <a:off x="7488937" y="6540113"/>
+          <a:ext cx="4260884" cy="3074534"/>
           <a:chOff x="11887755" y="3336249"/>
           <a:chExt cx="4260884" cy="3074534"/>
         </a:xfrm>
@@ -11759,7 +8189,7 @@
           <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11823,7 +8253,7 @@
           <xdr:cNvPr id="26" name="Chart 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11846,7 +8276,7 @@
           <xdr:cNvPr id="39" name="TextBox 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11927,7 +8357,7 @@
         <xdr:cNvPr id="53" name="Group 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11935,8 +8365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11955396" y="6555418"/>
-          <a:ext cx="5266514" cy="888546"/>
+          <a:off x="11837880" y="6555418"/>
+          <a:ext cx="5210848" cy="888546"/>
           <a:chOff x="11955396" y="6555418"/>
           <a:chExt cx="5266514" cy="888546"/>
         </a:xfrm>
@@ -11946,7 +8376,7 @@
           <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12010,7 +8440,7 @@
           <xdr:cNvPr id="41" name="TextBox 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12102,7 +8532,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12110,8 +8540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11979791" y="8736304"/>
-          <a:ext cx="5206622" cy="888546"/>
+          <a:off x="11862275" y="8736304"/>
+          <a:ext cx="5150956" cy="888546"/>
           <a:chOff x="11982750" y="8595500"/>
           <a:chExt cx="2906663" cy="888546"/>
         </a:xfrm>
@@ -12121,7 +8551,7 @@
           <xdr:cNvPr id="48" name="Rectangle: Rounded Corners 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12186,7 +8616,7 @@
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12293,7 +8723,7 @@
         <xdr:cNvPr id="50" name="Rectangle: Rounded Corners 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12354,277 +8784,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>134436</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle: Rounded Corners 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6993391" y="11972926"/>
-          <a:ext cx="228600" cy="2068010"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="csX0" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY0" fmla="*/ 114300 h 2066925"/>
-            <a:gd name="csX1" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2066925"/>
-            <a:gd name="csX2" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2066925"/>
-            <a:gd name="csX3" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY3" fmla="*/ 114300 h 2066925"/>
-            <a:gd name="csX4" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY4" fmla="*/ 1952625 h 2066925"/>
-            <a:gd name="csX5" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY5" fmla="*/ 2066925 h 2066925"/>
-            <a:gd name="csX6" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY6" fmla="*/ 2066925 h 2066925"/>
-            <a:gd name="csX7" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY7" fmla="*/ 1952625 h 2066925"/>
-            <a:gd name="csX8" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY8" fmla="*/ 114300 h 2066925"/>
-            <a:gd name="csX0" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY0" fmla="*/ 114300 h 2067397"/>
-            <a:gd name="csX1" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2067397"/>
-            <a:gd name="csX2" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2067397"/>
-            <a:gd name="csX3" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY3" fmla="*/ 114300 h 2067397"/>
-            <a:gd name="csX4" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY4" fmla="*/ 2013027 h 2067397"/>
-            <a:gd name="csX5" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY5" fmla="*/ 2066925 h 2067397"/>
-            <a:gd name="csX6" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY6" fmla="*/ 2066925 h 2067397"/>
-            <a:gd name="csX7" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY7" fmla="*/ 1952625 h 2067397"/>
-            <a:gd name="csX8" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY8" fmla="*/ 114300 h 2067397"/>
-            <a:gd name="csX0" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY0" fmla="*/ 114300 h 2068010"/>
-            <a:gd name="csX1" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2068010"/>
-            <a:gd name="csX2" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2068010"/>
-            <a:gd name="csX3" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY3" fmla="*/ 114300 h 2068010"/>
-            <a:gd name="csX4" fmla="*/ 228600 w 228600"/>
-            <a:gd name="csY4" fmla="*/ 2013027 h 2068010"/>
-            <a:gd name="csX5" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY5" fmla="*/ 2066925 h 2068010"/>
-            <a:gd name="csX6" fmla="*/ 114300 w 228600"/>
-            <a:gd name="csY6" fmla="*/ 2066925 h 2068010"/>
-            <a:gd name="csX7" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY7" fmla="*/ 1952625 h 2068010"/>
-            <a:gd name="csX8" fmla="*/ 0 w 228600"/>
-            <a:gd name="csY8" fmla="*/ 114300 h 2068010"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="csX0" y="csY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX1" y="csY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX2" y="csY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX3" y="csY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX4" y="csY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX5" y="csY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX6" y="csY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX7" y="csY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX8" y="csY8"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="228600" h="2068010">
-              <a:moveTo>
-                <a:pt x="0" y="114300"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="51174"/>
-                <a:pt x="51174" y="0"/>
-                <a:pt x="114300" y="0"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="114300" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="177426" y="0"/>
-                <a:pt x="228600" y="51174"/>
-                <a:pt x="228600" y="114300"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="228600" y="2013027"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="228600" y="2076153"/>
-                <a:pt x="177426" y="2066925"/>
-                <a:pt x="114300" y="2066925"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="114300" y="2066925"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="51174" y="2066925"/>
-                <a:pt x="0" y="2087188"/>
-                <a:pt x="0" y="1952625"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="0" y="114300"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="23000">
-              <a:srgbClr val="FF5B7E"/>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="3600000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-ZA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -12643,7 +8802,7 @@
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12722,268 +8881,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>72259</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>569261</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>140626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle: Rounded Corners 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7397850" y="12021208"/>
-          <a:ext cx="497002" cy="2025918"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="csX0" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY0" fmla="*/ 167509 h 2023241"/>
-            <a:gd name="csX1" fmla="*/ 167509 w 492673"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2023241"/>
-            <a:gd name="csX2" fmla="*/ 325164 w 492673"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2023241"/>
-            <a:gd name="csX3" fmla="*/ 492673 w 492673"/>
-            <a:gd name="csY3" fmla="*/ 167509 h 2023241"/>
-            <a:gd name="csX4" fmla="*/ 492673 w 492673"/>
-            <a:gd name="csY4" fmla="*/ 1855732 h 2023241"/>
-            <a:gd name="csX5" fmla="*/ 325164 w 492673"/>
-            <a:gd name="csY5" fmla="*/ 2023241 h 2023241"/>
-            <a:gd name="csX6" fmla="*/ 167509 w 492673"/>
-            <a:gd name="csY6" fmla="*/ 2023241 h 2023241"/>
-            <a:gd name="csX7" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY7" fmla="*/ 1855732 h 2023241"/>
-            <a:gd name="csX8" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY8" fmla="*/ 167509 h 2023241"/>
-            <a:gd name="csX0" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY0" fmla="*/ 167509 h 2025918"/>
-            <a:gd name="csX1" fmla="*/ 167509 w 492673"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2025918"/>
-            <a:gd name="csX2" fmla="*/ 325164 w 492673"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2025918"/>
-            <a:gd name="csX3" fmla="*/ 492673 w 492673"/>
-            <a:gd name="csY3" fmla="*/ 167509 h 2025918"/>
-            <a:gd name="csX4" fmla="*/ 492673 w 492673"/>
-            <a:gd name="csY4" fmla="*/ 1855732 h 2025918"/>
-            <a:gd name="csX5" fmla="*/ 325164 w 492673"/>
-            <a:gd name="csY5" fmla="*/ 2023241 h 2025918"/>
-            <a:gd name="csX6" fmla="*/ 167509 w 492673"/>
-            <a:gd name="csY6" fmla="*/ 2023241 h 2025918"/>
-            <a:gd name="csX7" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY7" fmla="*/ 1954267 h 2025918"/>
-            <a:gd name="csX8" fmla="*/ 0 w 492673"/>
-            <a:gd name="csY8" fmla="*/ 167509 h 2025918"/>
-            <a:gd name="csX0" fmla="*/ 0 w 497002"/>
-            <a:gd name="csY0" fmla="*/ 167509 h 2025918"/>
-            <a:gd name="csX1" fmla="*/ 167509 w 497002"/>
-            <a:gd name="csY1" fmla="*/ 0 h 2025918"/>
-            <a:gd name="csX2" fmla="*/ 325164 w 497002"/>
-            <a:gd name="csY2" fmla="*/ 0 h 2025918"/>
-            <a:gd name="csX3" fmla="*/ 492673 w 497002"/>
-            <a:gd name="csY3" fmla="*/ 167509 h 2025918"/>
-            <a:gd name="csX4" fmla="*/ 497002 w 497002"/>
-            <a:gd name="csY4" fmla="*/ 1950982 h 2025918"/>
-            <a:gd name="csX5" fmla="*/ 325164 w 497002"/>
-            <a:gd name="csY5" fmla="*/ 2023241 h 2025918"/>
-            <a:gd name="csX6" fmla="*/ 167509 w 497002"/>
-            <a:gd name="csY6" fmla="*/ 2023241 h 2025918"/>
-            <a:gd name="csX7" fmla="*/ 0 w 497002"/>
-            <a:gd name="csY7" fmla="*/ 1954267 h 2025918"/>
-            <a:gd name="csX8" fmla="*/ 0 w 497002"/>
-            <a:gd name="csY8" fmla="*/ 167509 h 2025918"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="csX0" y="csY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX1" y="csY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX2" y="csY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX3" y="csY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX4" y="csY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX5" y="csY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX6" y="csY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX7" y="csY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="csX8" y="csY8"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="497002" h="2025918">
-              <a:moveTo>
-                <a:pt x="0" y="167509"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="74996"/>
-                <a:pt x="74996" y="0"/>
-                <a:pt x="167509" y="0"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="325164" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="417677" y="0"/>
-                <a:pt x="492673" y="74996"/>
-                <a:pt x="492673" y="167509"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="497002" y="1950982"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="497002" y="2043495"/>
-                <a:pt x="417677" y="2023241"/>
-                <a:pt x="325164" y="2023241"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="167509" y="2023241"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="74996" y="2023241"/>
-                <a:pt x="0" y="2046780"/>
-                <a:pt x="0" y="1954267"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="0" y="167509"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="2CC295"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357296</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584431</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>125420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle: Rounded Corners 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2188694" y="11635154"/>
-          <a:ext cx="5721328" cy="110766"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="2CC295"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523638</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -13000,7 +8897,7 @@
         <xdr:cNvPr id="59" name="TextBox 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13072,7 +8969,7 @@
         <xdr:cNvPr id="60" name="TextBox 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13134,6 +9031,79 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>277090</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>173182</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>311726</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>17702</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDFD1F8-2FD3-B7B3-FD34-0B9BC0B9DB98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -13718,1333 +9688,23 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="0E2841"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E8E8E8"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="156082"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="E97132"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="196B24"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="0F9ED5"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="A02B93"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="4EA72E"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="467886"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="96607D"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41F0769-C4B7-494C-A9A9-6056AB008393}">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:S49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA5085-492A-47EB-A64B-3FC8F7BF26E3}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="M69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="43"/>
-    </row>
-    <row r="3" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="42"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="11"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="42"/>
-    </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="42"/>
-    </row>
-    <row r="7" spans="2:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-    </row>
-    <row r="8" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="29"/>
-    </row>
-    <row r="11" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="29"/>
-    </row>
-    <row r="13" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="29"/>
-    </row>
-    <row r="14" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="29"/>
-    </row>
-    <row r="15" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="29"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="29"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="29"/>
-    </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="29"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="29"/>
-    </row>
-    <row r="21" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="29"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="29"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="29"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="29"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="29"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="29"/>
-    </row>
-    <row r="27" spans="2:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="29"/>
-    </row>
-    <row r="28" spans="2:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="29"/>
-    </row>
-    <row r="29" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="29"/>
-    </row>
-    <row r="30" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="29"/>
-    </row>
-    <row r="31" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="29"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="29"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="29"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="29"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="29"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="29"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="29"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="29"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="29"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="29"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="29"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="29"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="29"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="29"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="40"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="29"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="29"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="29"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="29"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B21:C21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA5085-492A-47EB-A64B-3FC8F7BF26E3}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="M69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="69" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M69" s="56" t="s">
-        <v>9</v>
+      <c r="M69" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15055,27 +9715,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2050" r:id="rId4">
+        <oleObject progId="Packager Shell Object" shapeId="2051" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>27</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2050" r:id="rId4"/>
+        <oleObject progId="Packager Shell Object" shapeId="2051" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
